--- a/dal, subji, kadhi/Dal/yellow moong dal/Roasted Moong dal.xlsx
+++ b/dal, subji, kadhi/Dal/yellow moong dal/Roasted Moong dal.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nandi\Google Drive\recipies\dal, subji, kadhi\Dal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nandi\Google Drive\recipies\dal, subji, kadhi\Dal\yellow moong dal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F43E00D-4BAE-4F68-B31F-E2570BCF2EAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F731711-3D84-4B39-9CC3-F130CE397D05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{134C7825-DF8B-42D3-A51C-71C91B0E6488}"/>
   </bookViews>
@@ -586,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E1998A-25FC-42BE-BFFC-DAF05717235E}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,13 +650,13 @@
       </c>
       <c r="B3" s="13">
         <f>(E3/F3)*D3</f>
-        <v>0.42857142857142855</v>
+        <v>0.71428571428571419</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3" s="11">
         <v>0.5</v>
@@ -671,13 +671,13 @@
       </c>
       <c r="B4" s="12">
         <f>(E4/F4)*D4</f>
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4" s="11">
         <v>105</v>
@@ -692,13 +692,13 @@
       </c>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B20" si="0">(E5/F5)*D5</f>
-        <v>4.2857142857142856</v>
+        <v>7.1428571428571432</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5">
-        <v>3</v>
+      <c r="D5" s="10">
+        <v>5</v>
       </c>
       <c r="E5" s="1">
         <v>5</v>
@@ -719,8 +719,8 @@
         <v>0</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6">
-        <v>3</v>
+      <c r="D6" s="10">
+        <v>5</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1">
@@ -733,13 +733,13 @@
       </c>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
-        <v>2.5714285714285712</v>
+        <v>4.2857142857142856</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D7">
-        <v>3</v>
+      <c r="D7" s="10">
+        <v>5</v>
       </c>
       <c r="E7" s="1">
         <v>3</v>
@@ -760,11 +760,11 @@
       </c>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
-        <v>0.8571428571428571</v>
+        <v>1.4285714285714284</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8">
-        <v>3</v>
+      <c r="D8" s="10">
+        <v>5</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -785,13 +785,13 @@
       </c>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
-        <v>0.21428571428571427</v>
+        <v>0.3571428571428571</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D9">
-        <v>3</v>
+      <c r="D9" s="10">
+        <v>5</v>
       </c>
       <c r="E9" s="1">
         <v>0.25</v>
@@ -806,13 +806,13 @@
       </c>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
-        <v>0.21428571428571427</v>
+        <v>0.3571428571428571</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D10">
-        <v>3</v>
+      <c r="D10" s="10">
+        <v>5</v>
       </c>
       <c r="E10" s="1">
         <v>0.25</v>
@@ -830,13 +830,13 @@
       </c>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
-        <v>0.21428571428571427</v>
+        <v>0.3571428571428571</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D11">
-        <v>3</v>
+      <c r="D11" s="10">
+        <v>5</v>
       </c>
       <c r="E11" s="1">
         <v>0.25</v>
@@ -851,13 +851,13 @@
       </c>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
-        <v>0.8571428571428571</v>
+        <v>1.4285714285714284</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D12">
-        <v>3</v>
+      <c r="D12" s="10">
+        <v>5</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -872,13 +872,13 @@
       </c>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
-        <v>0.8571428571428571</v>
+        <v>1.4285714285714284</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D13">
-        <v>3</v>
+      <c r="D13" s="10">
+        <v>5</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -893,13 +893,13 @@
       </c>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
-        <v>0.21428571428571427</v>
+        <v>0.3571428571428571</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D14">
-        <v>3</v>
+      <c r="D14" s="10">
+        <v>5</v>
       </c>
       <c r="E14" s="1">
         <v>0.25</v>
@@ -914,13 +914,13 @@
       </c>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
-        <v>1.7142857142857142</v>
+        <v>2.8571428571428568</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D15">
-        <v>3</v>
+      <c r="D15" s="10">
+        <v>5</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
@@ -935,13 +935,13 @@
       </c>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
-        <v>0.64285714285714279</v>
+        <v>1.0714285714285714</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D16">
-        <v>3</v>
+      <c r="D16" s="10">
+        <v>5</v>
       </c>
       <c r="E16" s="1">
         <v>0.75</v>
@@ -956,13 +956,13 @@
       </c>
       <c r="B17" s="5">
         <f t="shared" si="0"/>
-        <v>0.8571428571428571</v>
+        <v>1.4285714285714284</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D17">
-        <v>3</v>
+      <c r="D17" s="10">
+        <v>5</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -977,13 +977,13 @@
       </c>
       <c r="B18" s="5">
         <f t="shared" si="0"/>
-        <v>0.21428571428571427</v>
+        <v>0.3571428571428571</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D18">
-        <v>3</v>
+      <c r="D18" s="10">
+        <v>5</v>
       </c>
       <c r="E18" s="1">
         <v>0.25</v>
@@ -998,13 +998,13 @@
       </c>
       <c r="B19" s="5">
         <f t="shared" si="0"/>
-        <v>1.7142857142857142</v>
+        <v>2.8571428571428568</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D19">
-        <v>3</v>
+      <c r="D19" s="10">
+        <v>5</v>
       </c>
       <c r="E19" s="1">
         <v>2</v>
@@ -1019,13 +1019,13 @@
       </c>
       <c r="B20" s="5">
         <f t="shared" si="0"/>
-        <v>1.7142857142857142</v>
+        <v>2.8571428571428568</v>
       </c>
       <c r="C20" t="s">
         <v>32</v>
       </c>
-      <c r="D20">
-        <v>3</v>
+      <c r="D20" s="10">
+        <v>5</v>
       </c>
       <c r="E20" s="1">
         <v>2</v>
@@ -1035,7 +1035,23 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D21" s="10"/>
       <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D26" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
